--- a/team_results/ilves/xlsx_ilves_1_played_games_data.xlsx
+++ b/team_results/ilves/xlsx_ilves_1_played_games_data.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>38</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>43</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>121</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>124</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>162</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>165</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
         <v>278</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="n">
         <v>280</v>

--- a/team_results/ilves/xlsx_ilves_1_played_games_data.xlsx
+++ b/team_results/ilves/xlsx_ilves_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>38</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>43</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
         <v>121</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n">
         <v>124</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>199</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
         <v>200</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>278</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>280</v>
@@ -1971,11 +1971,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1985,18 +1985,18 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>ilves</t>
         </is>
       </c>
     </row>
@@ -2005,11 +2005,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2019,18 +2019,18 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>jukurit</t>
         </is>
       </c>
     </row>
@@ -2039,32 +2039,100 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>380</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ilves</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>tps</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>tps</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>386</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>2022-02-25</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ilves</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ilves</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>tappara</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>4</v>
       </c>
-      <c r="G48" t="n">
-        <v>3</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ilves</t>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ilves</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>407</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ilves</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>sport</t>
         </is>
       </c>
     </row>
